--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_35.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_35.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9935936257237429</v>
+        <v>0.9242505799757397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7186868714718595</v>
+        <v>0.7033687636094483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7056958564426289</v>
+        <v>0.6681663658874948</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9489558918620251</v>
+        <v>0.7251073220619181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02688618236962933</v>
+        <v>0.3179041113339073</v>
       </c>
       <c r="G2" t="n">
-        <v>1.881142185795526</v>
+        <v>1.983574443604871</v>
       </c>
       <c r="H2" t="n">
-        <v>1.052708856769995</v>
+        <v>1.186949668400817</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05635567874453438</v>
+        <v>0.211412078735278</v>
       </c>
       <c r="J2" t="n">
-        <v>0.283394770036319</v>
+        <v>1.607468699569857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1639700654681498</v>
+        <v>0.5638298602716135</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003750072747077</v>
+        <v>0.7402877027739646</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1709506106199572</v>
+        <v>0.5878332647120892</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2322855818055</v>
+        <v>36.29201095671823</v>
       </c>
       <c r="O2" t="n">
-        <v>216.4592141982385</v>
+        <v>57.01289997947764</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9936492104120525</v>
+        <v>0.9242878777913716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7184877163494858</v>
+        <v>0.7028874256225115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7058706809450187</v>
+        <v>0.6679804360459296</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9514468387198219</v>
+        <v>0.7296177364313932</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02665290532361182</v>
+        <v>0.3177475803805436</v>
       </c>
       <c r="G3" t="n">
-        <v>1.882473937015865</v>
+        <v>1.986793152939875</v>
       </c>
       <c r="H3" t="n">
-        <v>1.052083519661853</v>
+        <v>1.187614728663264</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05360552782587685</v>
+        <v>0.2079432483358631</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2835539663688563</v>
+        <v>1.606298118947149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1632571754123286</v>
+        <v>0.5636910327302924</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003717535368555</v>
+        <v>0.7404155809989883</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1702073713585738</v>
+        <v>0.5876885269949214</v>
       </c>
       <c r="N3" t="n">
-        <v>137.2497142330815</v>
+        <v>36.2929959675886</v>
       </c>
       <c r="O3" t="n">
-        <v>216.4766428495145</v>
+        <v>57.01388499034801</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9937005415508993</v>
+        <v>0.9243201879065688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7182849117435895</v>
+        <v>0.7023955880160143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7060395765230336</v>
+        <v>0.6677820448657558</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9538866641529031</v>
+        <v>0.7340649168342899</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02643747951475907</v>
+        <v>0.3176119817389226</v>
       </c>
       <c r="G4" t="n">
-        <v>1.883830092349322</v>
+        <v>1.990082073279226</v>
       </c>
       <c r="H4" t="n">
-        <v>1.051479389972422</v>
+        <v>1.188324362411364</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05091181794798455</v>
+        <v>0.2045230493675262</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2837097862662751</v>
+        <v>1.605121372854549</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1625960624208319</v>
+        <v>0.5635707424440366</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003687487872644</v>
+        <v>0.7405263585368073</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1695181134183366</v>
+        <v>0.5875631157021444</v>
       </c>
       <c r="N4" t="n">
-        <v>137.2659451940628</v>
+        <v>36.29384964888508</v>
       </c>
       <c r="O4" t="n">
-        <v>216.4928738104958</v>
+        <v>57.01473867164449</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9937476501217457</v>
+        <v>0.9242008575919942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7180783809448639</v>
+        <v>0.6949687399215185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7062024098559091</v>
+        <v>0.6638630270029505</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9562744475433592</v>
+        <v>0.784607787117198</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02623977492050108</v>
+        <v>0.3181127855417491</v>
       </c>
       <c r="G5" t="n">
-        <v>1.885211164751387</v>
+        <v>2.03974544068461</v>
       </c>
       <c r="H5" t="n">
-        <v>1.050896944582346</v>
+        <v>1.202342462068906</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04827556552683654</v>
+        <v>0.1656519766568738</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2838611751335446</v>
+        <v>1.589120810277138</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1619869591062845</v>
+        <v>0.5640148806031177</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003659912123856</v>
+        <v>0.7401172260296944</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1688830793146712</v>
+        <v>0.5880261617421503</v>
       </c>
       <c r="N5" t="n">
-        <v>137.2809577853357</v>
+        <v>36.2906985751362</v>
       </c>
       <c r="O5" t="n">
-        <v>216.5078864017687</v>
+        <v>57.01158759789561</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9937902869089444</v>
+        <v>0.9241423722338403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7178681238720803</v>
+        <v>0.6943078037596752</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7063586721835735</v>
+        <v>0.6634406732371878</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9586085813458146</v>
+        <v>0.7878021746171388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02606083744559761</v>
+        <v>0.3183582360785848</v>
       </c>
       <c r="G6" t="n">
-        <v>1.886617154765236</v>
+        <v>2.044165123842188</v>
       </c>
       <c r="H6" t="n">
-        <v>1.050338003296901</v>
+        <v>1.203853196999561</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04569854538648319</v>
+        <v>0.1631952647985807</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2840069632869117</v>
+        <v>1.587845002480018</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1614336936503579</v>
+        <v>0.5642324308993456</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00363495400452</v>
+        <v>0.7399167048017383</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1683062602028685</v>
+        <v>0.5882529736048798</v>
       </c>
       <c r="N6" t="n">
-        <v>137.2946431450281</v>
+        <v>36.28915600342019</v>
       </c>
       <c r="O6" t="n">
-        <v>216.5215717614612</v>
+        <v>57.0100450261796</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9938283912955727</v>
+        <v>0.9240756438732629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7176540026757359</v>
+        <v>0.6936322859558119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7065085801106352</v>
+        <v>0.6629980273584954</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9608871498438075</v>
+        <v>0.7908757937425942</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02590092148630585</v>
+        <v>0.3186382807332281</v>
       </c>
       <c r="G7" t="n">
-        <v>1.888048984191129</v>
+        <v>2.048682314507094</v>
       </c>
       <c r="H7" t="n">
-        <v>1.049801791333962</v>
+        <v>1.205436515641561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04318287258986571</v>
+        <v>0.1608314324352487</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2841458272063199</v>
+        <v>1.586568849592329</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1609376322874978</v>
+        <v>0.5644805406151997</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003612648997714</v>
+        <v>0.7396879218511871</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1677890804808028</v>
+        <v>0.5885116458649958</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3069534645754</v>
+        <v>36.28739747152687</v>
       </c>
       <c r="O7" t="n">
-        <v>216.5338820810084</v>
+        <v>57.00828649428628</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9938618498434761</v>
+        <v>0.923606345273578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7174359534193269</v>
+        <v>0.6900232796277534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7066518542904203</v>
+        <v>0.6604581339883646</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9631089772181931</v>
+        <v>0.8042464241634957</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02576050311829265</v>
+        <v>0.3206078265625598</v>
       </c>
       <c r="G8" t="n">
-        <v>1.88950708057276</v>
+        <v>2.072815756440769</v>
       </c>
       <c r="H8" t="n">
-        <v>1.049289307900385</v>
+        <v>1.21452156695504</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04072984531004275</v>
+        <v>0.1505484638509758</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2842818216657217</v>
+        <v>1.58013432073917</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1605007885285697</v>
+        <v>0.5662224179265245</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003593063506258</v>
+        <v>0.7380788980808388</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1673336393786659</v>
+        <v>0.5903276784996467</v>
       </c>
       <c r="N8" t="n">
-        <v>137.3178256938942</v>
+        <v>36.2750732537392</v>
       </c>
       <c r="O8" t="n">
-        <v>216.5447543103272</v>
+        <v>56.99596227649861</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9938905526847479</v>
+        <v>0.9234831695899579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7172139175412919</v>
+        <v>0.6892520521701635</v>
       </c>
       <c r="D9" t="n">
-        <v>0.706788060509123</v>
+        <v>0.6598795508440725</v>
       </c>
       <c r="E9" t="n">
-        <v>0.965272348739028</v>
+        <v>0.8064827627743666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0256400434336593</v>
+        <v>0.3211247685566587</v>
       </c>
       <c r="G9" t="n">
-        <v>1.890991835511561</v>
+        <v>2.077972958000848</v>
       </c>
       <c r="H9" t="n">
-        <v>1.048802106153776</v>
+        <v>1.216591125313994</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03834135670909204</v>
+        <v>0.1488285599305568</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2844128694833209</v>
+        <v>1.578838764425863</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1601250868341975</v>
+        <v>0.5666787172257828</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003576261843074</v>
+        <v>0.7376565814512843</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1669419432853546</v>
+        <v>0.5908034034047442</v>
       </c>
       <c r="N9" t="n">
-        <v>137.3271999059013</v>
+        <v>36.27185108855797</v>
       </c>
       <c r="O9" t="n">
-        <v>216.5541285223343</v>
+        <v>56.99274011131738</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9939143837259077</v>
+        <v>0.9233493870452872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7169879382799587</v>
+        <v>0.6884640401212954</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7069168842301923</v>
+        <v>0.6592755024318248</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9673760856733249</v>
+        <v>0.808558451744539</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02554002965190871</v>
+        <v>0.3216862252775406</v>
       </c>
       <c r="G10" t="n">
-        <v>1.892502959872636</v>
+        <v>2.083242398200091</v>
       </c>
       <c r="H10" t="n">
-        <v>1.048341311173139</v>
+        <v>1.218751771459865</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0360187081771248</v>
+        <v>0.1472322070437372</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2845364435527069</v>
+        <v>1.577541748675003</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1598124827787514</v>
+        <v>0.5671738933321426</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003562311965322</v>
+        <v>0.7371978984409848</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1666160310280885</v>
+        <v>0.5913196601831077</v>
       </c>
       <c r="N10" t="n">
-        <v>137.3350165347593</v>
+        <v>36.26835732837624</v>
       </c>
       <c r="O10" t="n">
-        <v>216.5619451511923</v>
+        <v>56.98924635113565</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9939332308899467</v>
+        <v>0.9232046835451352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.716757854086584</v>
+        <v>0.6876573741791889</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7070383890541951</v>
+        <v>0.6586448520339645</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9694180412184791</v>
+        <v>0.8104680386177232</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02546093213627018</v>
+        <v>0.3222935149123394</v>
       </c>
       <c r="G11" t="n">
-        <v>1.894041533933172</v>
+        <v>2.088636577069312</v>
       </c>
       <c r="H11" t="n">
-        <v>1.047906695462936</v>
+        <v>1.2210075713658</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03376426990968995</v>
+        <v>0.1457635985183533</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2846564019109777</v>
+        <v>1.576248815850293</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1595648211112656</v>
+        <v>0.5677090054881456</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003551279479056</v>
+        <v>0.7367017721547493</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1663578258906875</v>
+        <v>0.5918775531714267</v>
       </c>
       <c r="N11" t="n">
-        <v>137.3412201494585</v>
+        <v>36.26458522328088</v>
       </c>
       <c r="O11" t="n">
-        <v>216.5681487658916</v>
+        <v>56.98547424604029</v>
       </c>
     </row>
   </sheetData>
